--- a/MSXIV_AuxBatteryCharger/Project Outputs for NiMH Battery Charger/NiMH Battery Charger_ProjectRevision.xlsx
+++ b/MSXIV_AuxBatteryCharger/Project Outputs for NiMH Battery Charger/NiMH Battery Charger_ProjectRevision.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YCA42\hardware\MSXIV_AuxBatteryCharger\Project Outputs for NiMH Battery Charger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Midnight Sun\Documents\Midnight Sun\hardware\MSXIV_AuxBatteryCharger\Project Outputs for NiMH Battery Charger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD975B33-3473-4436-8D5B-1BBE783927B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{309BAA44-2904-474C-9EC5-EAB40B3FD8A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="612" windowWidth="12660" windowHeight="11748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29310" yWindow="705" windowWidth="11520" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM Report" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="158">
   <si>
     <t>Title</t>
   </si>
@@ -101,35 +101,27 @@
   </si>
   <si>
     <t>NiMH Battery Charger.PrjPcb</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>&lt;Parameter ProjectRevision not found&gt;</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>&lt;Parameter ProjectAuthor not found&gt;</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/11/30 13:17</t>
-    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-12-01 12:54 AM</t>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>CAD</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>36</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>LibRef</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>CAP CER 10uF 50V 20% X5R 1206</t>
@@ -186,19 +178,25 @@
     <t>MOSFET N-CHANNEL 20V 4A SOT23F</t>
   </si>
   <si>
-    <t>CMP-2002-08252-1</t>
+    <t>RES SMD 180 OHM 1% 1/10W 0603</t>
   </si>
   <si>
     <t>RES 10K OHM 1% 1/10W 0603</t>
   </si>
   <si>
-    <t>RES-2</t>
-  </si>
-  <si>
-    <t>RES</t>
-  </si>
-  <si>
-    <t>CMP-2002-05244-1</t>
+    <t>RES 50 mOhm 1%</t>
+  </si>
+  <si>
+    <t>RES 180k OHM</t>
+  </si>
+  <si>
+    <t>RES 49.9K OHM 1% 1/10W</t>
+  </si>
+  <si>
+    <t>RES 20K OHM</t>
+  </si>
+  <si>
+    <t>RES 0.22 OHM 1% 1/10W 0603</t>
   </si>
   <si>
     <t>RES 2.21K OHM 1% 1/10W 0603</t>
@@ -214,7 +212,6 @@
   </si>
   <si>
     <t>Designator</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>C1, C2</t>
@@ -271,7 +268,7 @@
     <t>Q2</t>
   </si>
   <si>
-    <t>R1, R9</t>
+    <t>R1</t>
   </si>
   <si>
     <t>R2, R3, R4</t>
@@ -280,12 +277,18 @@
     <t>R5</t>
   </si>
   <si>
-    <t>R6, R8</t>
+    <t>R6</t>
   </si>
   <si>
     <t>R7</t>
   </si>
   <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
     <t>R10</t>
   </si>
   <si>
@@ -299,7 +302,6 @@
   </si>
   <si>
     <t>Manufacturer 1</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Murata</t>
@@ -329,15 +331,18 @@
     <t>Toshiba</t>
   </si>
   <si>
+    <t>Yageo Phycomp</t>
+  </si>
+  <si>
+    <t>Vishay Dale</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
     <t>Vishay</t>
   </si>
   <si>
-    <t>Yageo Phycomp</t>
-  </si>
-  <si>
-    <t>Yageo</t>
-  </si>
-  <si>
     <t>Analog Devices / Linear Technology</t>
   </si>
   <si>
@@ -345,7 +350,6 @@
   </si>
   <si>
     <t>Manufacturer Part Number 1</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>GRT31CR61H106ME01L</t>
@@ -390,12 +394,12 @@
     <t>SSM3K345R,LF</t>
   </si>
   <si>
-    <t>CRCW0402180KFKED</t>
-  </si>
-  <si>
     <t>RC0603FR-0710KL</t>
   </si>
   <si>
+    <t>WSL0603R0500FEA</t>
+  </si>
+  <si>
     <t>AC0603FR-072K21L</t>
   </si>
   <si>
@@ -409,17 +413,15 @@
   </si>
   <si>
     <t>Supplier 1</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Digi-Key</t>
   </si>
   <si>
-    <t>Farnell</t>
+    <t>Arrow</t>
   </si>
   <si>
     <t>Supplier Part Number 1</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>490-12457-1-ND</t>
@@ -474,59 +476,33 @@
   </si>
   <si>
     <t>Supplier Unit Price 1</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Quantity</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Supplier Subtotal 1</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\YCA42\hardware\MSXIV_AuxBatteryCharger\NiMH Battery Charger.PrjPcb</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>NiMH Battery Charger.PrjPcb</t>
-    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\Midnight Sun\Documents\Midnight Sun\hardware\MSXIV_AuxBatteryCharger\NiMH Battery Charger.PrjPcb</t>
   </si>
   <si>
     <t>None</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Bill of Materials for Project [NiMH Battery Charger.PrjPcb] (No PCB Document Selected)</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>36</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>13:17</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/11/30</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/11/30 13:17</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bill of Materials</t>
-    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:54 AM</t>
+  </si>
+  <si>
+    <t>2019-12-01</t>
   </si>
   <si>
     <t>BOM_PartType</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>BOM</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -534,7 +510,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -625,7 +601,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -654,7 +630,7 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -666,7 +642,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -728,8 +704,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -756,8 +732,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>889027</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -800,7 +776,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1099,27 +1075,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J41"/>
+  <dimension ref="A2:J43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="12" style="6" customWidth="1"/>
     <col min="6" max="6" width="21" style="6" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="6" customWidth="1"/>
     <col min="8" max="8" width="16" style="6" customWidth="1"/>
     <col min="9" max="9" width="20" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="6"/>
+    <col min="10" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
         <v>15</v>
       </c>
@@ -1127,7 +1103,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>14</v>
       </c>
@@ -1135,7 +1111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>18</v>
       </c>
@@ -1143,7 +1119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>19</v>
       </c>
@@ -1156,7 +1132,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>20</v>
       </c>
@@ -1169,7 +1145,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>16</v>
       </c>
@@ -1179,7 +1155,7 @@
       <c r="C7" s="24"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>17</v>
       </c>
@@ -1188,7 +1164,7 @@
       </c>
       <c r="C8" s="24"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>22</v>
       </c>
@@ -1197,59 +1173,59 @@
       </c>
       <c r="C9" s="24"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C10" s="24"/>
     </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G12" s="3">
-        <v>0.66410999999999998</v>
+        <v>0.66410000000000002</v>
       </c>
       <c r="H12" s="3">
         <v>2</v>
@@ -1258,24 +1234,24 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G13" s="3">
         <v>0.43830999999999998</v>
@@ -1284,27 +1260,27 @@
         <v>2</v>
       </c>
       <c r="I13" s="10">
-        <v>0.87663000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.87661999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G14" s="3">
         <v>0.19922999999999999</v>
@@ -1316,24 +1292,24 @@
         <v>0.19922999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G15" s="3">
         <v>0.38518000000000002</v>
@@ -1345,21 +1321,21 @@
         <v>0.38518000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="3"/>
@@ -1368,24 +1344,24 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G17" s="3">
         <v>6.51</v>
@@ -1397,24 +1373,24 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G18" s="3">
         <v>0.62426000000000004</v>
@@ -1426,17 +1402,17 @@
         <v>0.62426000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="3"/>
@@ -1445,12 +1421,12 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="3"/>
@@ -1462,24 +1438,24 @@
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G21" s="3">
         <v>2.0299999999999998</v>
@@ -1491,12 +1467,12 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="3"/>
@@ -1508,24 +1484,24 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G23" s="3">
         <v>0.18595</v>
@@ -1537,24 +1513,24 @@
         <v>0.18595</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G24" s="3">
         <v>0.18595</v>
@@ -1566,24 +1542,24 @@
         <v>0.18595</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G25" s="3">
         <v>0.18595</v>
@@ -1595,24 +1571,24 @@
         <v>0.18595</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G26" s="3">
         <v>1.04</v>
@@ -1624,24 +1600,24 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G27" s="3">
         <v>1.1200000000000001</v>
@@ -1653,12 +1629,12 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="3"/>
@@ -1670,24 +1646,24 @@
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G29" s="3">
         <v>0.55784999999999996</v>
@@ -1699,49 +1675,43 @@
         <v>0.55784999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>116</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="9">
-        <v>1571693</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F30" s="9"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G31" s="3">
         <v>0.13281999999999999</v>
@@ -1750,53 +1720,69 @@
         <v>3</v>
       </c>
       <c r="I31" s="10">
-        <v>0.39846999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.39845999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.89375000000000004</v>
+      </c>
       <c r="H32" s="3">
         <v>1</v>
       </c>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="10">
+        <v>0.89375000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="F33" s="9"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="F34" s="9"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3">
@@ -1804,50 +1790,36 @@
       </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>118</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0.13281999999999999</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="3"/>
       <c r="H35" s="3">
         <v>1</v>
       </c>
-      <c r="I35" s="10">
-        <v>0.13281999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>119</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="3"/>
@@ -1856,111 +1828,164 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G37" s="3">
-        <v>14.33</v>
+        <v>0.13281999999999999</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
       </c>
       <c r="I37" s="10">
-        <v>14.33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.13281999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G38" s="3">
-        <v>0.87663000000000002</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="3"/>
       <c r="H38" s="3">
         <v>1</v>
       </c>
-      <c r="I38" s="10">
-        <v>0.87663000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="3" t="s">
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:10" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" s="3">
+        <v>14.33</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="10">
+        <v>14.33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.87661999999999995</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+      <c r="I40" s="10">
+        <v>0.87661999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="14">
-        <f>SUM(I12:I38)</f>
-        <v>33.038919999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="17"/>
-    </row>
-    <row r="41" spans="1:10" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="17"/>
+      <c r="I41" s="14">
+        <f>SUM(I12:I40)</f>
+        <v>33.932639999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.46" right="0.36" top="0.57999999999999996" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
+  <pageSetup scale="58" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;BAltium Limited Confidential&amp;B&amp;C&amp;D&amp;RPage &amp;P</oddFooter>
   </headerFooter>
@@ -1970,134 +1995,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="A1:IV65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="108.5546875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="108.5703125" style="19" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
+  <pageSetup scale="93" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>